--- a/公式合集.xlsx
+++ b/公式合集.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
     <sheet name="装备强化" sheetId="2" r:id="rId2"/>
     <sheet name="容斥原理" sheetId="3" r:id="rId3"/>
+    <sheet name="排列组合" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,227 +164,202 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>两个集合的容斥关系公式：A∪B =|A∪B| = |A|+|B| - |A∩B |(∩：重合的部分）</t>
+  </si>
+  <si>
+    <t>三个集合的容斥关系公式：|A∪B∪C| = |A|+|B|+|C| - |A∩B| - |B∩C| - |C∩A| + |A∩B∩C|</t>
+  </si>
+  <si>
+    <t>示例1：BOSS掉落A、B、C三件装备，A、B、C的掉落几率都是1/3，但是BOSS每次只掉1件装备。为了凑齐A、B、C三件装备，期望需要打多少次？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p = 1 + 1/(2/3) + 1/(1/3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">p = </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p = 1/(1/3) + 1/(1/3) + 1/(1/3) - 1/(1/3+1/3) - 1/(1/3+1/3) - 1/(1/3+1/3) + 1/(1/3 + 1/3 + 1/3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gad.qq.com/article/detail/22636</t>
+  </si>
+  <si>
+    <t>四个集合的容斥关系公式：|A∪B∪C∪D| = |A|+|B|+|C|+|D| - |A∩B| - |A∩C| - |A∩D| - |B∩C| - |B∩D| - |C∩D| + |A∩B∩C|+ |A∩B∩D|+ |A∩C∩D|+ |B∩C∩D| - |A∩B∩C∩D|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排列组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排列的定义：从n个不同元素中，任取m(m≤n,m与n均为自然数,下同）个元素按照一定的顺序排成一列，叫做从n个不同元素中取出m个元素的一个排列；从n个不同元素中取出m(m≤n）个元素的所有排列的个数，叫做从n个不同元素中取出m个元素的排列数，用符号 A(n,m）表示。</t>
+  </si>
+  <si>
+    <t>计算公式：</t>
+  </si>
+  <si>
+    <t>组合的定义：从n个不同元素中，任取m(m≤n）个元素并成一组，叫做从n个不同元素中取出m个元素的一个组合；从n个不同元素中取出m(m≤n）个元素的所有组合的个数，叫做从n个不同元素中取出m个元素的组合数。用符号 C(n,m) 表示。</t>
+  </si>
+  <si>
+    <t>；C(n,m)=C(n,n-m）。（n≥m)</t>
+  </si>
+  <si>
+    <t>基本计数原理</t>
+  </si>
+  <si>
+    <t>⑴加法原理和分类计数法</t>
+  </si>
+  <si>
+    <t>⒉第一类办法的方法属于集合A1，第二类办法的方法属于集合A2，……，第n类办法的方法属于集合An，那么完成这件事的方法属于集合A1UA2U…UAn。</t>
+  </si>
+  <si>
+    <t>⒊分类的要求 ：每一类中的每一种方法都可以独立地完成此任务；两类不同办法中的具体方法，互不相同（即分类不重）；完成此任务的任何一种方法，都属于某一类（即分类不漏）。</t>
+  </si>
+  <si>
+    <t>⑵乘法原理和分步计数法</t>
+  </si>
+  <si>
+    <t>⒉合理分步的要求</t>
+  </si>
+  <si>
+    <t>任何一步的一种方法都不能完成此任务，必须且只须连续完成这n步才能完成此任务；各步计数相互独立；只要有一步中所采取的方法不同，则对应的完成此事的方法也不同。</t>
+  </si>
+  <si>
+    <t>3.与后来的离散型随机变量也有密切相关。</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如果被计数的事物有</t>
+      <t>⒈ </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乘法原理：做一件事，完成它需要分成n个步骤，做第一步有m1种不同的方法，做第二步有m2种不同的方法，……，做第n步有mn种不同的方法，那么完成这件事共有N=m1×m2×m3×…×mn种不同的方法。</t>
+    </r>
+  </si>
+  <si>
+    <t>⒈加法原理：做一件事，完成它可以有n类办法，在第一类办法中有m1种不同的方法，在第二类办法中有m2种不同的方法，……，在第n类办法中有mn种不同的方法，那么完成这件事共有N=m1+m2+m3+…+mn种不同方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【例4】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>A</t>
+      <t>从6双不同颜色的手套中任取4只，其中恰好有一双同色的取法有多少种？</t>
+    </r>
+  </si>
+  <si>
+    <t>（A)240 (B)180 (C)120 (D)60</t>
+  </si>
+  <si>
+    <t>分析：显然本题应分步解决。</t>
+  </si>
+  <si>
+    <t>（一）从6双中选出一双同色的手套，有6种方法；</t>
+  </si>
+  <si>
+    <t>（二）从剩下的十只手套中任选一只，有10种方法。</t>
+  </si>
+  <si>
+    <t>（三）从除前所涉及的两双手套之外的八只手套中任选一只，有8种方法；</t>
+  </si>
+  <si>
+    <t>（四）由于选取与顺序无关，因（二）（三）中的选法重复一次，因而共240种。</t>
+  </si>
+  <si>
+    <t>或分步</t>
+  </si>
+  <si>
+    <t>⑴从6双中选出一双同色的手套，有C（6,1）=6种方法</t>
+  </si>
+  <si>
+    <t>⑵从剩下的5双手套中任选两双，有C（5,2）=10种方法</t>
+  </si>
+  <si>
+    <t>⑶从两双中手套中分别各拿一只手套，有C（2,1）×C（2,1）=4种方法。</t>
+  </si>
+  <si>
+    <t>同样得出共⑴×⑵×⑶=240种。</t>
+  </si>
+  <si>
+    <r>
+      <t>【例12】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>某人射击8枪，命中4枪，恰好有三枪连续命中，有多少种不同的情况?</t>
+    </r>
+  </si>
+  <si>
+    <t>分析：∵ 连续命中的三枪与单独命中的一枪不能相邻，因而这是一个插空问题。另外没有命中的之间没有区别，不必计数。即在四发空枪之间形成的5个空中选出2个的排列，即A（5,2）。</t>
+  </si>
+  <si>
+    <r>
+      <t>【例22】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 5名学生分配到4个不同的科技小组参加活动，每个科技小组至少有一名学生参加，则分配方法共有多少种？</t>
+    </r>
+  </si>
+  <si>
+    <t>分析：（一）先把5个学生分成二人，一人，一人，一人各一组。</t>
+  </si>
+  <si>
+    <t>（二）再考虑分配到四个不同的科技小组，有A（4,4）=24种，</t>
+  </si>
+  <si>
+    <t>由（一）（二）可知，共10×24=240种。</t>
+  </si>
+  <si>
+    <r>
+      <t>其中涉及到平均分成三组，有C（5,3）=10种分组方法。可以看成4个板三个板不空的</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF333333"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>、</t>
+      <t>隔板法。</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>三类，那么，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类元素个数总和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>= A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类元素个数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>+ B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类元素个数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>+C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类元素个数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两个集合的容斥关系公式：A∪B =|A∪B| = |A|+|B| - |A∩B |(∩：重合的部分）</t>
-  </si>
-  <si>
-    <t>三个集合的容斥关系公式：|A∪B∪C| = |A|+|B|+|C| - |A∩B| - |B∩C| - |C∩A| + |A∩B∩C|</t>
-  </si>
-  <si>
-    <t>示例1：BOSS掉落A、B、C三件装备，A、B、C的掉落几率都是1/3，但是BOSS每次只掉1件装备。为了凑齐A、B、C三件装备，期望需要打多少次？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p = 1 + 1/(2/3) + 1/(1/3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">p = </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p = 1/(1/3) + 1/(1/3) + 1/(1/3) - 1/(1/3+1/3) - 1/(1/3+1/3) - 1/(1/3+1/3) + 1/(1/3 + 1/3 + 1/3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://gad.qq.com/article/detail/22636</t>
   </si>
 </sst>
 </file>
@@ -392,9 +368,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,14 +442,26 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,6 +483,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,7 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -693,7 +687,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -703,6 +697,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -719,6 +731,219 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>99059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15240" y="0"/>
+          <a:ext cx="7848600" cy="1013459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="https://gss2.bdstatic.com/9fo3dSag_xI4khGkpoWK1HF6hhy/baike/s%3D257/sign=97158a763df33a879a6d071ff15d1018/2e2eb9389b504fc2974eb943e2dde71190ef6d66.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="60960" y="548640"/>
+          <a:ext cx="2446020" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="https://gss0.bdstatic.com/94o3dSag_xI4khGkpoWK1HF6hhy/baike/s%3D70/sign=c20e5a5165d0f703e2b297dc09fa9dc2/4ec2d5628535e5ddaf0ca99971c6a7efce1b6257.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2583180" y="441960"/>
+          <a:ext cx="670560" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="https://gss3.bdstatic.com/-Po3dSag_xI4khGkpoWK1HF6hhy/baike/s%3D162/sign=f68c65f4b5b7d0a27fc9009bf9ee760d/5d6034a85edf8db190ab75220e23dd54574e74ea.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="137160" y="1356360"/>
+          <a:ext cx="1546860" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1010,20 +1235,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="21.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1037,7 +1262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1051,7 +1276,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1065,7 +1290,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1076,42 +1301,51 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1122,6 +1356,7 @@
     <hyperlink ref="D2" location="装备强化!A1" display="超链接"/>
     <hyperlink ref="D3" location="装备强化!A1" display="超链接"/>
     <hyperlink ref="D4" location="装备强化!A1" display="超链接"/>
+    <hyperlink ref="D5" location="排列组合!A1" display="超链接"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1131,17 +1366,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1168,7 +1401,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1195,7 +1428,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -1218,7 +1451,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1237,7 +1470,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1288,7 +1521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1341,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -1395,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -1450,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -1506,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -1563,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -1621,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -1680,7 +1913,7 @@
         <v>14.652557267545181</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1699,7 +1932,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1718,7 +1951,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
@@ -1739,7 +1972,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1782,7 +2015,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -1831,7 +2064,7 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -1877,7 +2110,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -1923,7 +2156,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>4</v>
       </c>
@@ -1969,7 +2202,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>5</v>
       </c>
@@ -2015,7 +2248,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="16"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>6</v>
       </c>
@@ -2061,7 +2294,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="16"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>7</v>
       </c>
@@ -2104,9 +2337,9 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="16"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2117,69 +2350,90 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="B14" s="1">
         <f>1 + 1/(2/3) + 1/(1/3)</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="B18" s="1">
         <f>1/(1/3) + 1/(1/3) + 1/(1/3) - 1/(1/3+1/3) - 1/(1/3+1/3) - 1/(1/3+1/3) + 1/(1/3 + 1/3 + 1/3)</f>
         <v>5.5</v>
       </c>
@@ -2187,5 +2441,212 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/公式合集.xlsx
+++ b/公式合集.xlsx
@@ -4,20 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
     <sheet name="装备强化" sheetId="2" r:id="rId2"/>
     <sheet name="容斥原理" sheetId="3" r:id="rId3"/>
     <sheet name="排列组合" sheetId="4" r:id="rId4"/>
+    <sheet name="正态分布" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="ref_2" localSheetId="4">正态分布!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="275">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,9 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://gad.qq.com/article/detail/22636</t>
-  </si>
-  <si>
     <t>四个集合的容斥关系公式：|A∪B∪C∪D| = |A|+|B|+|C|+|D| - |A∩B| - |A∩C| - |A∩D| - |B∩C| - |B∩D| - |C∩D| + |A∩B∩C|+ |A∩B∩D|+ |A∩C∩D|+ |B∩C∩D| - |A∩B∩C∩D|</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,9 +215,6 @@
     <t>组合的定义：从n个不同元素中，任取m(m≤n）个元素并成一组，叫做从n个不同元素中取出m个元素的一个组合；从n个不同元素中取出m(m≤n）个元素的所有组合的个数，叫做从n个不同元素中取出m个元素的组合数。用符号 C(n,m) 表示。</t>
   </si>
   <si>
-    <t>；C(n,m)=C(n,n-m）。（n≥m)</t>
-  </si>
-  <si>
     <t>基本计数原理</t>
   </si>
   <si>
@@ -241,8 +239,330 @@
     <t>3.与后来的离散型随机变量也有密切相关。</t>
   </si>
   <si>
-    <r>
-      <t>⒈ </t>
+    <t>⒈加法原理：做一件事，完成它可以有n类办法，在第一类办法中有m1种不同的方法，在第二类办法中有m2种不同的方法，……，在第n类办法中有mn种不同的方法，那么完成这件事共有N=m1+m2+m3+…+mn种不同方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正态分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间随机算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容斥原理公式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⒈ 乘法原理：做一件事，完成它需要分成n个步骤，做第一步有m1种不同的方法，做第二步有m2种不同的方法，……，做第n步有mn种不同的方法，那么完成这件事共有N=m1×m2×m3×…×mn种不同的方法。</t>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷出概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：悬赏栏任务对应的品质与概率如下，求刷出金的期望,初始任务品质为白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gad.qq.com/article/detail/22636</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化目标等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败增加成功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化失败增加固定成功率的期望计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化成功概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶到此品质概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷金期望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果随机变量只取得有限个值或无穷能按一定次序一一列出，其值域为一个或若干个有限或无限区间，这样的随机变量称为离散型随机变量。</t>
+  </si>
+  <si>
+    <t>例子</t>
+  </si>
+  <si>
+    <t>某城市有10万个家庭，没有孩子的家庭有1000个，有一个孩子的家庭有9万个，有两个孩子的家庭有6000个，有3个孩子的家庭有3000个。</t>
+  </si>
+  <si>
+    <t>则此城市中任一个家庭中孩子的数目是一个随机变量，记为X。它可取值0，1，2，3。</t>
+  </si>
+  <si>
+    <t>其中，X取0的概率为0.01，取1的概率为0.9，取2的概率为0.06，取3的概率为0.03。</t>
+  </si>
+  <si>
+    <t>则，它的数学期望</t>
+  </si>
+  <si>
+    <t>，即此城市一个家庭平均有小孩1.11个，当然人不可能用1.11个来算，约等于2个。</t>
+  </si>
+  <si>
+    <t>期望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在统计描述中，方差用来计算每一个变量（观察值）与总体均数之间的差异。为避免出现离均差总和为零，离均差平方和受样本含量的影响，统计学采用平均离均差平方和来描述变量的变异程度。总体方差计算公式：</t>
+  </si>
+  <si>
+    <t>为总体方差，</t>
+  </si>
+  <si>
+    <t>为变量，</t>
+  </si>
+  <si>
+    <t>为总体均值，</t>
+  </si>
+  <si>
+    <t>为总体例数。</t>
+  </si>
+  <si>
+    <t>方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正态分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式</t>
+  </si>
+  <si>
+    <t>参数定义</t>
+  </si>
+  <si>
+    <r>
+      <t>正态分布具有两个参数μ和σ^2的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>连续型随机变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>的分布，第一参数μ是服从正态分布的随机变量的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，第二个参数σ^2是此随机变量的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>方差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，所以正态分布记作N(μ,σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>μ是正态分布的位置参数，描述正态分布的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>集中趋势</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>位置。概率规律为取与μ邻近的值的概率大，而取离μ越远的值的概率越小。正态分布以X=μ为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>对称轴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，左右完全对称。正态分布的期望、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>均数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、众数相同，均等于μ。</t>
+    </r>
+  </si>
+  <si>
+    <t>σ描述正态分布资料数据分布的离散程度，σ越大，数据分布越分散，σ越小，数据分布越集中。也称为是正态分布的形状参数，σ越大，曲线越扁平，反之，σ越小，曲线越瘦高。</t>
+  </si>
+  <si>
+    <r>
+      <t>正态分布表达式中有两个参数，即</t>
     </r>
     <r>
       <rPr>
@@ -252,12 +572,258 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>乘法原理：做一件事，完成它需要分成n个步骤，做第一步有m1种不同的方法，做第二步有m2种不同的方法，……，做第n步有mn种不同的方法，那么完成这件事共有N=m1×m2×m3×…×mn种不同的方法。</t>
-    </r>
-  </si>
-  <si>
-    <t>⒈加法原理：做一件事，完成它可以有n类办法，在第一类办法中有m1种不同的方法，在第二类办法中有m2种不同的方法，……，在第n类办法中有mn种不同的方法，那么完成这件事共有N=m1+m2+m3+…+mn种不同方法。</t>
+      <t>期望（均数）μ和标准差σ，σ2为方差。</t>
+    </r>
+  </si>
+  <si>
+    <t>例：装备随机出来的时候，最大攻和最小攻区间的分布可以使用正态分布，保证随机到的大攻和小攻在中间偏大攻位置，会有更好的随机体验</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【例6】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>在11名工人中，有5人只能当钳工，4人只能当车工，另外2人能当钳工也能当车工。现从11人中选出4人当钳工，4人当车工，问共有多少种不同的选法?</t>
+    </r>
+  </si>
+  <si>
+    <t>分析：采用加法原理首先要做到分类不重不漏，如何做到这一点？分类的标准必须前后统一。</t>
+  </si>
+  <si>
+    <t>以两个全能的工人为分类的对象，考虑以他们当中有几个去当钳工为分类标准。</t>
+  </si>
+  <si>
+    <t>第一类：这两个人都去当钳工，C（2,2）×C（5,2）×C（4,4）=10种；</t>
+  </si>
+  <si>
+    <t>第二类：这两个人都去当车工，C（5,4）×C（2,2）×C（4,2）=30种；</t>
+  </si>
+  <si>
+    <t>第三类：这两人既不去当钳工，也不去当车工C（5,4）×C（4,4）=5种。</t>
+  </si>
+  <si>
+    <t>第四类：这两个人一个去当钳工、一个去当车工，C（2,1）×C（5,3）×C（4,3）=80种；</t>
+  </si>
+  <si>
+    <t>第五类：这两个人一个去当钳工、另一个不去当车工，C（2,1）×C（5,3）×C（4,4）=20种；</t>
+  </si>
+  <si>
+    <t>第六类：这两个人一个去当车工、另一个不去当钳工，C（5,4）×C（2,1）×C（4,3）=40种；</t>
+  </si>
+  <si>
+    <t>因而共有185种。</t>
+  </si>
+  <si>
+    <r>
+      <t>【例10】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>对某件产品的6件不同正品和4件不同次品进行一一测试，至区分出所有次品为止。若所有次品恰好在第五次测试时被全部发现，则这样的测试方法有多少种可能?</t>
+    </r>
+  </si>
+  <si>
+    <t>分析：本题意指第五次测试的产品一定是次品，并且是最后一个次品，因而第五次测试应算是特殊位置了，分步完成。</t>
+  </si>
+  <si>
+    <t>第一步：第五次测试的有C（4,1）种可能；</t>
+  </si>
+  <si>
+    <t>第二步：前四次有一件正品有C（6,1）中可能。</t>
+  </si>
+  <si>
+    <t>第三步：前四次有A（4,4）种可能。</t>
+  </si>
+  <si>
+    <t>∴ 共有576种可能。</t>
+  </si>
+  <si>
+    <r>
+      <t>【例11】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8人排成一队</t>
+    </r>
+  </si>
+  <si>
+    <t>⑴甲乙必须相邻</t>
+  </si>
+  <si>
+    <t>⑵甲乙不相邻</t>
+  </si>
+  <si>
+    <t>⑶甲乙必须相邻且与丙不相邻</t>
+  </si>
+  <si>
+    <t>⑷甲乙必须相邻，丙丁必须相邻</t>
+  </si>
+  <si>
+    <t>⑸甲乙不相邻，丙丁不相邻</t>
+  </si>
+  <si>
+    <t>分析：⑴甲乙必须相邻，就是把甲乙 捆绑（甲乙可交换） 和7人排列A（7,7）×A（2，2）</t>
+  </si>
+  <si>
+    <t>⑵甲乙不相邻，A（8,8）-A（7,7）×2。或A（6,6）×A(7,2)</t>
+  </si>
+  <si>
+    <t>⑶甲乙必须相邻且与丙不相邻，先求甲乙必须相邻且与丙相邻A（6,6）×2×2</t>
+  </si>
+  <si>
+    <t>甲乙必须相邻且与丙不相邻A（7,7）×2-A（6,6）×2×2</t>
+  </si>
+  <si>
+    <t>⑷甲乙必须相邻，丙丁必须相邻A（6,6）×2×2</t>
+  </si>
+  <si>
+    <t>⑸甲乙不相邻，丙丁不相邻，A（8,8）-A（7,7）×2×2+A（6,6）×2×2</t>
+  </si>
+  <si>
+    <r>
+      <t>【例19】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 三个相同的红球和两个不同的白球排成一行，共有多少种不同的方法?</t>
+    </r>
+  </si>
+  <si>
+    <t>分析：先认为三个红球互不相同，共A（5,5）=120种方法。</t>
+  </si>
+  <si>
+    <t>而由于三个红球所占位置相同的情况下，共A（3,3）=6变化，因而共A（5,5）/A（3,3）=20种。</t>
+  </si>
+  <si>
+    <t>额外简化方法：只排列白球，红球自然形成，A(5,2)=20种</t>
+  </si>
+  <si>
+    <t>公式P是指排列，从N个元素取R个进行排列（即排序）。（P是旧用法，教材上多用A，Arrangement)</t>
+  </si>
+  <si>
+    <t>公式C是指组合，从N个元素取R个，不进行排列（即不排序）。</t>
+  </si>
+  <si>
+    <t>例题</t>
+  </si>
+  <si>
+    <t>分析：首先要把复杂的生活背景或其它数学背景转化为一个明确的排列组合问题。</t>
+  </si>
+  <si>
+    <t>设a,b,c成等差，∴ 2b=a+c，可知b由a,c决定，</t>
+  </si>
+  <si>
+    <t>又∵ 2b是偶数，∴ a,c同奇或同偶，即：分别从1，3，5，……，19或2，4，6，8，……，20这十个数中选出两个数进行排列，由此就可确定等差数列，A（10,2）*2=90*2，因而本题为180。</t>
+  </si>
+  <si>
+    <r>
+      <t>【例2】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 某城市有4条东西街道和6条南北的街道，街道之间的间距相同，若规定只能向东或向北两个方向沿图中路线前进，则从M到N有多少种不同的走法?</t>
+    </r>
+  </si>
+  <si>
+    <t>分析：对实际背景的分析可以逐层深入：</t>
+  </si>
+  <si>
+    <t>（一）从M到N必须向上走三步，向右走五步，共走八步；</t>
+  </si>
+  <si>
+    <t>（二）每一步是向上还是向右，决定了不同的走法；</t>
+  </si>
+  <si>
+    <t>（三）事实上，当把向上的步骤决定后，剩下的步骤只能向右；</t>
+  </si>
+  <si>
+    <t>从而，任务可叙述为：从八个步骤中选出哪三步是向上走，就可以确定走法数。</t>
+  </si>
+  <si>
+    <t>∴ 本题答案为：C（8,3）=56。</t>
+  </si>
+  <si>
+    <t>分析</t>
+  </si>
+  <si>
+    <t>分析是分类还是分步，是排列还是组合</t>
+  </si>
+  <si>
+    <t>注意加法原理与乘法原理的特点，分析是分类还是分步，是排列还是组合。</t>
+  </si>
+  <si>
+    <r>
+      <t>【例3】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>在一块并排的10垄田地中，选择二垄分别种植A，B两种作物，每种种植一垄，为有利于作物生长，要求A，B两种作物的间隔不少于6垄，不同的选法共有多少种？</t>
+    </r>
+  </si>
+  <si>
+    <t>分析：条件中“要求A、B两种作物的间隔不少于6垄”这个条件不容易用一个包含排列数，组合数的式子表示，因而采取分类的方法。</t>
+  </si>
+  <si>
+    <t>第一类：A在第一垄，B有3种选择；{此处应为4中选择，题干中说明为不少于6，所以，应为大于等于6}</t>
+  </si>
+  <si>
+    <t>第二类：A在第二垄，B有2种选择；{此处应为3种选择，理由同上}</t>
+  </si>
+  <si>
+    <t>第三类：A在第三垄，B有1种选择，{此处应为2中选择，理由同上}</t>
+  </si>
+  <si>
+    <t>{还有第四类：A在第四垄，B有一种选择。}</t>
+  </si>
+  <si>
+    <t>同理A、B位置互换 ，共12种。{所以，答案应为（4+3+2+1）*2=20种）}</t>
+  </si>
+  <si>
+    <t>第二种分类方法：</t>
+  </si>
+  <si>
+    <t>第一类：中间间隔6胧：假设抽出六垄田地，则只剩下四垄。在四垄任选两垄都可以满足要求，但又可以交换位子所以选择是A（4，2）</t>
+  </si>
+  <si>
+    <t>第二类：中间间隔7垄：同理可得，在三垄中抽两个来排序，所以是A（3，2）</t>
+  </si>
+  <si>
+    <t>第三类：中间间隔8垄，则为A（2，2）</t>
+  </si>
+  <si>
+    <t>因此共有A（4，2）+A（3，2）+A（2，2）=20种</t>
   </si>
   <si>
     <r>
@@ -308,6 +874,141 @@
   </si>
   <si>
     <r>
+      <t>【例5】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>．身高互不相同的6个人排成2横行3纵列，在第一行的每一个人都比他同列的身后的人个子矮，则所有不同的排法种数为_______。</t>
+    </r>
+  </si>
+  <si>
+    <t>分析：每一纵列中的两人只要选定，则他们只有一种站位方法，因而每一纵列的排队方法只与人的选法有关系，共有三纵列，从而有C（6,2）×C（4,2）×C（2,2）=90种。</t>
+  </si>
+  <si>
+    <r>
+      <t>【例7】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>现有印着0，1，3，5，7，9的六张卡片，如果允许9可以作6用，那么从中任意抽出三张可以组成多少个不同的三位数?</t>
+    </r>
+  </si>
+  <si>
+    <t>分析：有同学认为只要把0，1，3，5，7，9的排法数乘以2即为所求，但实际上抽出的三个数中有9的话才可能用6替换，因而必须分类。</t>
+  </si>
+  <si>
+    <t>抽出的三数含0，含9，有32种方法；</t>
+  </si>
+  <si>
+    <t>抽出的三数含0不含9，有24种方法；</t>
+  </si>
+  <si>
+    <t>抽出的三数含9不含0，有72种方法；</t>
+  </si>
+  <si>
+    <t>抽出的三数不含9也不含0，有24种方法。</t>
+  </si>
+  <si>
+    <t>因此共有32+24+72+24=152种方法。</t>
+  </si>
+  <si>
+    <r>
+      <t>【例8】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>停车场划一排12个停车位置，今有8辆车需要停放，要求空车位连在一起，不同的停车方法有多少种?</t>
+    </r>
+  </si>
+  <si>
+    <t>分析：把空车位看成一个元素，和8辆车共九个元素排列，因而共有A（9,9）=362880种停车方法。</t>
+  </si>
+  <si>
+    <t>特殊优先</t>
+  </si>
+  <si>
+    <t>特殊元素，优先处理；特殊位置，优先考虑。</t>
+  </si>
+  <si>
+    <r>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>例9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>】六人站成一排，求</t>
+    </r>
+  </si>
+  <si>
+    <t>⑴甲、乙既不在排头也不在排尾的排法数</t>
+  </si>
+  <si>
+    <t>⑵甲不在排头，乙不在排尾，且甲乙不相邻的排法数</t>
+  </si>
+  <si>
+    <t>分析：⑴按照先排出首位和末尾再排中间四位分步计数</t>
+  </si>
+  <si>
+    <t>第一步：排出首位和末尾、因为甲乙不在首位和末尾，那么首位和末尾实在其它四位数选出两位进行排列、一共有A（4,2）=12种；</t>
+  </si>
+  <si>
+    <t>第二步：由于六个元素中已经有两位排在首位和末尾，因此中间四位是把剩下的四位元素进行顺序排列，</t>
+  </si>
+  <si>
+    <t>共A（4,4）=24种；</t>
+  </si>
+  <si>
+    <t>根据乘法原理得即不再排头也不在排尾数共12×24=288种。</t>
+  </si>
+  <si>
+    <t>⑵第一类：甲在排尾，乙在排头，有A（4,4）种方法。</t>
+  </si>
+  <si>
+    <t>第二类：甲在排尾，乙不在排头，有3×A（4,4）种方法。</t>
+  </si>
+  <si>
+    <t>第三类：乙在排头，甲不在排尾，有3×A（4,4）种方法。</t>
+  </si>
+  <si>
+    <t>第四类：甲不在排尾也不在排头，乙不在排头也不在排尾，有6×A（4,4）种方法（排除相邻）。</t>
+  </si>
+  <si>
+    <t>共A（4,4）+3×A（4,4）+3×A（4,4）+6×A（4,4）=312种。</t>
+  </si>
+  <si>
+    <t>捆绑与插空</t>
+  </si>
+  <si>
+    <r>
       <t>【例12】</t>
     </r>
     <r>
@@ -325,6 +1026,225 @@
   </si>
   <si>
     <r>
+      <t>【例13】 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>马路上有编号为l，2，3，……，10 十个路灯，为节约用电又看清路面，可以把其中的三只灯关掉，但不能同时关掉相邻的两只或三只，在两端的灯也不能关掉的情况下，求满足条件的关灯方法共有多少种?</t>
+    </r>
+  </si>
+  <si>
+    <t>分析：即关掉的灯不能相邻，也不能在两端。又因为灯与灯之间没有区别，因而问题为在7盏亮着的灯形成的不包含两端的6个空中选出3个空放置熄灭的灯。∴ 共C（6,3）=20种方法。</t>
+  </si>
+  <si>
+    <t>方法二：</t>
+  </si>
+  <si>
+    <t>把其中的3只灯关掉总情况有C（8，3)种</t>
+  </si>
+  <si>
+    <t>关掉相邻的三只有C（6，1)种</t>
+  </si>
+  <si>
+    <t>关掉相邻的两只有2*C（7，2)-12种</t>
+  </si>
+  <si>
+    <t>　　所以满足条件的关灯方法有:</t>
+  </si>
+  <si>
+    <t>　　C（8，3)-C（6，1)-[2*C（7，2)-12]</t>
+  </si>
+  <si>
+    <t>　　=56-6-(42-12)</t>
+  </si>
+  <si>
+    <t>　　=20种</t>
+  </si>
+  <si>
+    <t>间接计数法</t>
+  </si>
+  <si>
+    <t>⑴排除法</t>
+  </si>
+  <si>
+    <r>
+      <t>【例14】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>三行三列共九个点，以这些点为顶点可组成多少个三角形?</t>
+    </r>
+  </si>
+  <si>
+    <t>分析：有些问题正面求解有一定困难，可以采用间接法。</t>
+  </si>
+  <si>
+    <t>所求问题的方法数=任意三个点的组合数-共线三点的方法数，</t>
+  </si>
+  <si>
+    <t>∴ 共76种。</t>
+  </si>
+  <si>
+    <t>分析：所求问题的方法数=任意选四点的组合数-共面四点的方法数，</t>
+  </si>
+  <si>
+    <t>∴ 共C（8,4）-12=70-12=58个。</t>
+  </si>
+  <si>
+    <t>分析：由于底数不能为1。</t>
+  </si>
+  <si>
+    <t>⑴当1选上时，1必为真数，∴ 有一种情况。</t>
+  </si>
+  <si>
+    <t>⑵当不选1时，从2--9中任取两个分别作为底数，真数，共A（8,2）=56，其中log2为底4=log3为底9，log4为底2=log9为底3,log2为底3=log4为底9,log3为底2=log9为底4.</t>
+  </si>
+  <si>
+    <t>因而一共有56-4+1=53个。</t>
+  </si>
+  <si>
+    <r>
+      <t>【例17】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 六人排成一排，要求甲在乙的前面，（不一定相邻），共有多少种不同的方法? 如果要求甲乙丙按从左到右依次排列呢?</t>
+    </r>
+  </si>
+  <si>
+    <t>分析：（一）实际上，甲在乙的前面和甲在乙的后面两种情况对称，具有相同的排法数。因而有A(6，6)/2=360种。</t>
+  </si>
+  <si>
+    <t>（二）先考虑六人全排列A(6,6)种；其次甲乙丙三人实际上只能按照一种顺序站位，因而前面的排法数重复了A(3,3)种， ∴ 有A(6，6)/A(3,3)=120种。</t>
+  </si>
+  <si>
+    <r>
+      <t>【例18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>】5男4女排成一排，要求男生必须按从高到矮的顺序，共有多少种不同的方法?</t>
+    </r>
+  </si>
+  <si>
+    <t>分析：（一）首先不考虑男生的站位要求，共A（9,9）种；男生从左至右按从高到矮的顺序，只有一种站法，因而上述站法重复了A(5,5)次。因而有A(9,9,)/A(5,5,)=9×8×7×6=3024种</t>
+  </si>
+  <si>
+    <t>若男生从右至左按从高到矮的顺序，只有一种站法， 同理也有3024种，综上，有6048种。</t>
+  </si>
+  <si>
+    <t>（二）按照插空的方式进行思考。</t>
+  </si>
+  <si>
+    <t>第一步：4个女生先在9个位置中选择4个，为A(9,4)种方式；</t>
+  </si>
+  <si>
+    <t>第二步：男生站剩下的位置，因为必须从高到矮的顺序，没有规定方向，所以有2种；</t>
+  </si>
+  <si>
+    <t>综上，总的站法数有A(9,4)×2=6048种。</t>
+  </si>
+  <si>
+    <t>挡板的使用</t>
+  </si>
+  <si>
+    <r>
+      <t>【例20】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10个名额分配到八个班，每班至少一个名额，问有多少种不同的分配方法?</t>
+    </r>
+  </si>
+  <si>
+    <t>分析：把10个名额看成十个元素，在这十个元素之间形成的九个空中，选出七个位置放置档板，则每一种放置方式就相当于一种分配方式。因而共36种。</t>
+  </si>
+  <si>
+    <t>区别与联系</t>
+  </si>
+  <si>
+    <t>所有的排列都可以看作是先取组合，再做全排列；同样，组合如补充一个阶段（排序）可转化为排列问题。</t>
+  </si>
+  <si>
+    <r>
+      <t>【例21】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>用数字0，1，2，3，4，5组成没有重复数字的四位数，</t>
+    </r>
+  </si>
+  <si>
+    <t>⑴可组成多少个不同的四位数?</t>
+  </si>
+  <si>
+    <t>⑶可组成多少个能被3整除的四位数?</t>
+  </si>
+  <si>
+    <t>分析：⑴有A（6,4）-A（5,3）=300个。</t>
+  </si>
+  <si>
+    <t>⑵分为两类：0在末位，则有A（5,3）=60种：0不在末位，则有C（2,1）×A（5,3）-C（2,1）×A（4,2）=96种。</t>
+  </si>
+  <si>
+    <t>∴ 共60+96=156种。</t>
+  </si>
+  <si>
+    <t>⑶先把四个相加能被3整除的四个数从小到大列举出来，即先选</t>
+  </si>
+  <si>
+    <t>0，1，2，3</t>
+  </si>
+  <si>
+    <t>0，1，3，5</t>
+  </si>
+  <si>
+    <t>0，2，3，4</t>
+  </si>
+  <si>
+    <t>0，3，4，5</t>
+  </si>
+  <si>
+    <t>1，2，4，5</t>
+  </si>
+  <si>
+    <t>它们排列出来的数一定可以被3整除，再排列，有：4×[A（4,4）-A（3,3）]+A（4,4）=96种。</t>
+  </si>
+  <si>
+    <t>分组问题</t>
+  </si>
+  <si>
+    <r>
       <t>【例22】</t>
     </r>
     <r>
@@ -345,6 +1265,108 @@
   </si>
   <si>
     <t>由（一）（二）可知，共10×24=240种。</t>
+  </si>
+  <si>
+    <t>几何问题</t>
+  </si>
+  <si>
+    <r>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>例23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>】某区有7条南北向街道，5条东西向街道（如右图）</t>
+    </r>
+  </si>
+  <si>
+    <t>⑴图中共有多少个矩形？</t>
+  </si>
+  <si>
+    <t>⑵从A点到B点最近的走法有多少种？</t>
+  </si>
+  <si>
+    <t>分析：⑴在7条竖线中任选2条，5条横线中任选2条，这样4条线</t>
+  </si>
+  <si>
+    <t>可组成1个矩形，故可组成矩形C（7,2）·C（5,2）=210个</t>
+  </si>
+  <si>
+    <t>⑵每条东西向的街道被分成4段，每条南北向的街道被分成6段，从A到B最短的走法，无论怎样走，一定包括10段，其中6段方向相同，另外4段方向相同，每种走法，即是从10段中选出6段，这6段是走东西方向的，共有C（10,6）=C（10,4）=210种走法（同样可以从10段中选出4段走南北方向，每一种选法即是1种走法）。所以共有210种走法。</t>
+  </si>
+  <si>
+    <r>
+      <t>【例1】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> 从1、2、3、……、20这二十个数中任取三个不同的数组成等差数列，这样的不同等差数列有多少个？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>【例15】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正方体8个顶点中取出4个，可组成多少个四面体?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>【例16】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1，2，3，……，9中取出两个分别作为对数的底数和真数，可组成多少个不同数值的对数?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>⑵可组成多少个不同的四位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>偶数</t>
+    </r>
   </si>
   <si>
     <r>
@@ -366,11 +1388,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.000%"/>
+    <numFmt numFmtId="179" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,8 +1466,38 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF136EC2"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -452,6 +1506,29 @@
       <color rgb="FF333333"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -493,7 +1570,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -620,12 +1697,27 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE0E0E0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -697,22 +1789,51 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -737,16 +1858,59 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>169139</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6576060" y="5173980"/>
+          <a:ext cx="7330440" cy="3247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>99059</xdr:rowOff>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -763,8 +1927,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15240" y="0"/>
-          <a:ext cx="7848600" cy="1013459"/>
+          <a:off x="0" y="228600"/>
+          <a:ext cx="7856220" cy="990599"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -776,7 +1940,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -925,6 +2089,506 @@
         <a:xfrm>
           <a:off x="137160" y="1356360"/>
           <a:ext cx="1546860" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="https://gss0.bdstatic.com/94o3dSag_xI4khGkpoWK1HF6hhy/baike/s%3D220/sign=f29a8784ebc4b7453094b014fffd1e78/a8ec8a13632762d00fcca512a0ec08fa503dc6a9.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4236720" y="33367980"/>
+          <a:ext cx="2095500" cy="1341120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8" descr="https://gss1.bdstatic.com/-vo3dSag_xI4khGkpoWK1HF6hhy/baike/s%3D572/sign=c97a20aae1f81a4c2232eccee52b6029/caef76094b36acafeb94042276d98d1000e99cfc.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="76200" y="388620"/>
+          <a:ext cx="5448300" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10" descr="https://gss1.bdstatic.com/-vo3dSag_xI4khGkpoWK1HF6hhy/baike/s%3D363/sign=e91339cd9ddda144de096ab481b5d009/95eef01f3a292df5053a31cbb6315c6035a87377.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="60960" y="1699260"/>
+          <a:ext cx="3459480" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11" descr="https://gss2.bdstatic.com/9fo3dSag_xI4khGkpoWK1HF6hhy/baike/s%3D113/sign=c388d5738013632711edc632a28ea056/023b5bb5c9ea15cee484a9a6bc003af33a87b233.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="327660" y="2926080"/>
+          <a:ext cx="1074420" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12" descr="https://gss0.bdstatic.com/-4o3dSag_xI4khGkpoWK1HF6hhy/baike/s%3D18/sign=cbff73bb48a7d933bba8e07bac4b41a2/f7246b600c3387442fb466d35b0fd9f9d72aa028.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="91440" y="3284220"/>
+          <a:ext cx="175260" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13" descr="https://gss1.bdstatic.com/9vo3dSag_xI4khGkpoWK1HF6hhy/baike/s%3D12/sign=19a04804093b5bb5bad724fc37d3f460/4034970a304e251fa45ead57ad86c9177e3e53f7.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="53340" y="3489960"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14" descr="https://gss1.bdstatic.com/9vo3dSag_xI4khGkpoWK1HF6hhy/baike/s%3D13/sign=18b6d1d4db1373f0f13f6b9ca60f5cc6/1b4c510fd9f9d72aa9ac59b2de2a2834359bbb51.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="83820" y="3710940"/>
+          <a:ext cx="99060" cy="121920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15" descr="https://gss1.bdstatic.com/9vo3dSag_xI4khGkpoWK1HF6hhy/baike/s%3D14/sign=198a4804093b5bb5bad724fa37d3f40c/4034970a304e251fa474ad57ad86c9177e3e5399.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="76200" y="3870960"/>
+          <a:ext cx="137160" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16" descr="https://gss1.bdstatic.com/-vo3dSag_xI4khGkpoWK1HF6hhy/baike/s%3D212/sign=2a1990a68e35e5dd942ca2de44c4a7f5/a9d3fd1f4134970a559560db9ecad1c8a6865d5b.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="144780" y="4587240"/>
+          <a:ext cx="2019300" cy="464820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1235,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1306,10 +2970,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>32</v>
@@ -1318,6 +2982,15 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1357,21 +3030,30 @@
     <hyperlink ref="D3" location="装备强化!A1" display="超链接"/>
     <hyperlink ref="D4" location="装备强化!A1" display="超链接"/>
     <hyperlink ref="D5" location="排列组合!A1" display="超链接"/>
+    <hyperlink ref="D6" location="排列组合!A1" display="超链接"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2337,14 +4019,505 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="16"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="26">
+        <v>1</v>
+      </c>
+      <c r="C29" s="27">
+        <v>4.0189999999999997E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="26">
+        <f>B40</f>
+        <v>0.01</v>
+      </c>
+      <c r="H29" s="1">
+        <f>1*G29</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="26">
+        <v>0.94740000000000002</v>
+      </c>
+      <c r="C30" s="27">
+        <v>4.0189999999999997E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="28">
+        <f>G29+$C$40</f>
+        <v>5.0189999999999999E-2</v>
+      </c>
+      <c r="H30" s="1">
+        <f>1*(1-G29)*G30</f>
+        <v>4.9688099999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>3</v>
+      </c>
+      <c r="B31" s="26">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="C31" s="27">
+        <v>4.0189999999999997E-2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3</v>
+      </c>
+      <c r="G31" s="28">
+        <f t="shared" ref="G31:G53" si="8">G30+$C$40</f>
+        <v>9.0379999999999988E-2</v>
+      </c>
+      <c r="H31" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*G31</f>
+        <v>8.4985389521999993E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>4</v>
+      </c>
+      <c r="B32" s="26">
+        <v>0.82850000000000001</v>
+      </c>
+      <c r="C32" s="27">
+        <v>4.0189999999999997E-2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4</v>
+      </c>
+      <c r="G32" s="28">
+        <f t="shared" si="8"/>
+        <v>0.13056999999999999</v>
+      </c>
+      <c r="H32" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*(1-$G$31)*G32</f>
+        <v>0.11167998247311245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>5</v>
+      </c>
+      <c r="B33" s="26">
+        <v>0.57150000000000001</v>
+      </c>
+      <c r="C33" s="27">
+        <v>4.0189999999999997E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5</v>
+      </c>
+      <c r="G33" s="28">
+        <f t="shared" si="8"/>
+        <v>0.17076</v>
+      </c>
+      <c r="H33" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*(1-$G$31)*(1-$G$32)*G33</f>
+        <v>0.1269850811221146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>6</v>
+      </c>
+      <c r="B34" s="26">
+        <v>0.46650000000000003</v>
+      </c>
+      <c r="C34" s="27">
+        <v>4.0189999999999997E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>6</v>
+      </c>
+      <c r="G34" s="28">
+        <f t="shared" si="8"/>
+        <v>0.21095</v>
+      </c>
+      <c r="H34" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*(1-$G$31)*(1-$G$32)*(1-$G$33)*G34</f>
+        <v>0.13008473221992098</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>7</v>
+      </c>
+      <c r="B35" s="26">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="C35" s="27">
+        <v>4.0189999999999997E-2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>7</v>
+      </c>
+      <c r="G35" s="28">
+        <f t="shared" si="8"/>
+        <v>0.25113999999999997</v>
+      </c>
+      <c r="H35" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*(1-$G$31)*(1-$G$32)*(1-$G$33)*(1-$G$34)*G35</f>
+        <v>0.12219887612042865</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>8</v>
+      </c>
+      <c r="B36" s="26">
+        <v>0.30859999999999999</v>
+      </c>
+      <c r="C36" s="27">
+        <v>4.0189999999999997E-2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>8</v>
+      </c>
+      <c r="G36" s="28">
+        <f t="shared" si="8"/>
+        <v>0.29132999999999998</v>
+      </c>
+      <c r="H36" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*(1-$G$31)*(1-$G$32)*(1-$G$33)*(1-$G$34)*(1-$G$35)*G36</f>
+        <v>0.10615419570256422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>9</v>
+      </c>
+      <c r="B37" s="26">
+        <v>0.20430000000000001</v>
+      </c>
+      <c r="C37" s="27">
+        <v>4.0189999999999997E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>9</v>
+      </c>
+      <c r="G37" s="28">
+        <f t="shared" si="8"/>
+        <v>0.33151999999999998</v>
+      </c>
+      <c r="H37" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*(1-$G$31)*(1-$G$32)*(1-$G$33)*(1-$G$34)*(1-$G$35)*(1-$G$36)*G37</f>
+        <v>8.5606302074270127E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>10</v>
+      </c>
+      <c r="B38" s="26">
+        <v>0.19550000000000001</v>
+      </c>
+      <c r="C38" s="27">
+        <v>4.0189999999999997E-2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>10</v>
+      </c>
+      <c r="G38" s="28">
+        <f t="shared" si="8"/>
+        <v>0.37170999999999998</v>
+      </c>
+      <c r="H38" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*(1-$G$31)*(1-$G$32)*(1-$G$33)*(1-$G$34)*(1-$G$35)*(1-$G$36)*(1-$G$37)*G38</f>
+        <v>6.4163591735977105E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>11</v>
+      </c>
+      <c r="B39" s="26">
+        <v>0.1148</v>
+      </c>
+      <c r="C39" s="27">
+        <v>4.0189999999999997E-2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>11</v>
+      </c>
+      <c r="G39" s="28">
+        <f t="shared" si="8"/>
+        <v>0.41189999999999999</v>
+      </c>
+      <c r="H39" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*(1-$G$31)*(1-$G$32)*(1-$G$33)*(1-$G$34)*(1-$G$35)*(1-$G$36)*(1-$G$37)*(1-$G$38)*G39</f>
+        <v>4.467209922529717E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>12</v>
+      </c>
+      <c r="B40" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="C40" s="27">
+        <v>4.0189999999999997E-2</v>
+      </c>
+      <c r="D40" s="1">
+        <f>SUMPRODUCT(F29:F54,H29:H54)</f>
+        <v>6.6665517660390456</v>
+      </c>
+      <c r="F40" s="1">
+        <v>12</v>
+      </c>
+      <c r="G40" s="28">
+        <f t="shared" si="8"/>
+        <v>0.45208999999999999</v>
+      </c>
+      <c r="H40" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*(1-$G$31)*(1-$G$32)*(1-$G$33)*(1-$G$34)*(1-$G$35)*(1-$G$36)*(1-$G$37)*(1-$G$38)*(1-$G$39)*G40</f>
+        <v>2.883504606003268E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F41" s="1">
+        <v>13</v>
+      </c>
+      <c r="G41" s="28">
+        <f>G40+$C$40</f>
+        <v>0.49228</v>
+      </c>
+      <c r="H41" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*(1-$G$31)*(1-$G$32)*(1-$G$33)*(1-$G$34)*(1-$G$35)*(1-$G$36)*(1-$G$37)*(1-$G$38)*(1-$G$39)*(1-$G$40)*G41</f>
+        <v>1.7203514091235207E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F42" s="1">
+        <v>14</v>
+      </c>
+      <c r="G42" s="28">
+        <f t="shared" si="8"/>
+        <v>0.53247</v>
+      </c>
+      <c r="H42" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*(1-$G$31)*(1-$G$32)*(1-$G$33)*(1-$G$34)*(1-$G$35)*(1-$G$36)*(1-$G$37)*(1-$G$38)*(1-$G$39)*(1-$G$40)*(1-$G$41)*G42</f>
+        <v>9.447662947557894E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="1">
+        <v>15</v>
+      </c>
+      <c r="G43" s="28">
+        <f t="shared" si="8"/>
+        <v>0.57265999999999995</v>
+      </c>
+      <c r="H43" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*(1-$G$31)*(1-$G$32)*(1-$G$33)*(1-$G$34)*(1-$G$35)*(1-$G$36)*(1-$G$37)*(1-$G$38)*(1-$G$39)*(1-$G$40)*(1-$G$41)*(1-$G$42)*G43</f>
+        <v>4.7504590571653465E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F44" s="1">
+        <v>16</v>
+      </c>
+      <c r="G44" s="28">
+        <f t="shared" si="8"/>
+        <v>0.61284999999999989</v>
+      </c>
+      <c r="H44" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*(1-$G$31)*(1-$G$32)*(1-$G$33)*(1-$G$34)*(1-$G$35)*(1-$G$36)*(1-$G$37)*(1-$G$38)*(1-$G$39)*(1-$G$40)*(1-$G$41)*(1-$G$42)*(1-$G$43)*G44</f>
+        <v>2.1725334232751679E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F45" s="1">
+        <v>17</v>
+      </c>
+      <c r="G45" s="28">
+        <f t="shared" si="8"/>
+        <v>0.65303999999999984</v>
+      </c>
+      <c r="H45" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*(1-$G$31)*(1-$G$32)*(1-$G$33)*(1-$G$34)*(1-$G$35)*(1-$G$36)*(1-$G$37)*(1-$G$38)*(1-$G$39)*(1-$G$40)*(1-$G$41)*(1-$G$42)*(1-$G$43)*(1-$G$44)*G45</f>
+        <v>8.9625444632568125E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F46" s="1">
+        <v>18</v>
+      </c>
+      <c r="G46" s="28">
+        <f>G45+$C$40</f>
+        <v>0.69322999999999979</v>
+      </c>
+      <c r="H46" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*(1-$G$31)*(1-$G$32)*(1-$G$33)*(1-$G$34)*(1-$G$35)*(1-$G$36)*(1-$G$37)*(1-$G$38)*(1-$G$39)*(1-$G$40)*(1-$G$41)*(1-$G$42)*(1-$G$43)*(1-$G$44)*(1-$G$45)*G46</f>
+        <v>3.3010210800402909E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F47" s="1">
+        <v>19</v>
+      </c>
+      <c r="G47" s="28">
+        <f t="shared" si="8"/>
+        <v>0.73341999999999974</v>
+      </c>
+      <c r="H47" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*(1-$G$31)*(1-$G$32)*(1-$G$33)*(1-$G$34)*(1-$G$35)*(1-$G$36)*(1-$G$37)*(1-$G$38)*(1-$G$39)*(1-$G$40)*(1-$G$41)*(1-$G$42)*(1-$G$43)*(1-$G$44)*(1-$G$45)*(1-$G$46)*G47</f>
+        <v>1.0713628525858478E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F48" s="1">
+        <v>20</v>
+      </c>
+      <c r="G48" s="28">
+        <f t="shared" si="8"/>
+        <v>0.77360999999999969</v>
+      </c>
+      <c r="H48" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*(1-$G$31)*(1-$G$32)*(1-$G$33)*(1-$G$34)*(1-$G$35)*(1-$G$36)*(1-$G$37)*(1-$G$38)*(1-$G$39)*(1-$G$40)*(1-$G$41)*(1-$G$42)*(1-$G$43)*(1-$G$44)*(1-$G$45)*(1-$G$46)*(1-$G$47)*G48</f>
+        <v>3.0125445205879741E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F49" s="1">
+        <v>21</v>
+      </c>
+      <c r="G49" s="28">
+        <f t="shared" si="8"/>
+        <v>0.81379999999999963</v>
+      </c>
+      <c r="H49" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*(1-$G$31)*(1-$G$32)*(1-$G$33)*(1-$G$34)*(1-$G$35)*(1-$G$36)*(1-$G$37)*(1-$G$38)*(1-$G$39)*(1-$G$40)*(1-$G$41)*(1-$G$42)*(1-$G$43)*(1-$G$44)*(1-$G$45)*(1-$G$46)*(1-$G$47)*(1-$G$48)*G49</f>
+        <v>7.1744121789810041E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F50" s="1">
+        <v>22</v>
+      </c>
+      <c r="G50" s="28">
+        <f t="shared" si="8"/>
+        <v>0.85398999999999958</v>
+      </c>
+      <c r="H50" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*(1-$G$31)*(1-$G$32)*(1-$G$33)*(1-$G$34)*(1-$G$35)*(1-$G$36)*(1-$G$37)*(1-$G$38)*(1-$G$39)*(1-$G$40)*(1-$G$41)*(1-$G$42)*(1-$G$43)*(1-$G$44)*(1-$G$45)*(1-$G$46)*(1-$G$47)*(1-$G$48)*(1-$G$49)*G50</f>
+        <v>1.4018485610748997E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F51" s="1">
+        <v>23</v>
+      </c>
+      <c r="G51" s="28">
+        <f t="shared" si="8"/>
+        <v>0.89417999999999953</v>
+      </c>
+      <c r="H51" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*(1-$G$31)*(1-$G$32)*(1-$G$33)*(1-$G$34)*(1-$G$35)*(1-$G$36)*(1-$G$37)*(1-$G$38)*(1-$G$39)*(1-$G$40)*(1-$G$41)*(1-$G$42)*(1-$G$43)*(1-$G$44)*(1-$G$45)*(1-$G$46)*(1-$G$47)*(1-$G$48)*(1-$G$49)*(1-$G$50)*G51</f>
+        <v>2.1431662808158081E-7</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F52" s="1">
+        <v>24</v>
+      </c>
+      <c r="G52" s="28">
+        <f t="shared" si="8"/>
+        <v>0.93436999999999948</v>
+      </c>
+      <c r="H52" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*(1-$G$31)*(1-$G$32)*(1-$G$33)*(1-$G$34)*(1-$G$35)*(1-$G$36)*(1-$G$37)*(1-$G$38)*(1-$G$39)*(1-$G$40)*(1-$G$41)*(1-$G$42)*(1-$G$43)*(1-$G$44)*(1-$G$45)*(1-$G$46)*(1-$G$47)*(1-$G$48)*(1-$G$49)*(1-$G$50)*(1-$G$51)*G52</f>
+        <v>2.3698319980028377E-8</v>
+      </c>
+    </row>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F53" s="1">
+        <v>25</v>
+      </c>
+      <c r="G53" s="28">
+        <f t="shared" si="8"/>
+        <v>0.97455999999999943</v>
+      </c>
+      <c r="H53" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*(1-$G$31)*(1-$G$32)*(1-$G$33)*(1-$G$34)*(1-$G$35)*(1-$G$36)*(1-$G$37)*(1-$G$38)*(1-$G$39)*(1-$G$40)*(1-$G$41)*(1-$G$42)*(1-$G$43)*(1-$G$44)*(1-$G$45)*(1-$G$46)*(1-$G$47)*(1-$G$48)*(1-$G$49)*(1-$G$50)*(1-$G$51)*(1-$G$52)*G53</f>
+        <v>1.6222196567273304E-9</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F54" s="1">
+        <v>26</v>
+      </c>
+      <c r="G54" s="28">
+        <f>MIN(100%,G53+$C$40)</f>
+        <v>1</v>
+      </c>
+      <c r="H54" s="1">
+        <f>1*(1-$G$29)*(1-$G$30)*(1-$G$31)*(1-$G$32)*(1-$G$33)*(1-$G$34)*(1-$G$35)*(1-$G$36)*(1-$G$37)*(1-$G$38)*(1-$G$39)*(1-$G$40)*(1-$G$41)*(1-$G$42)*(1-$G$43)*(1-$G$44)*(1-$G$45)*(1-$G$46)*(1-$G$47)*(1-$G$48)*(1-$G$49)*(1-$G$50)*(1-$G$51)*(1-$G$52)*(1-$G$53)*G54</f>
+        <v>4.2346564672410359E-11</v>
+      </c>
+    </row>
+    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G55" s="28"/>
+    </row>
+    <row r="56" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G56" s="28"/>
+    </row>
+    <row r="57" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G57" s="28"/>
+    </row>
+    <row r="58" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G58" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2352,14 +4525,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
+      <c r="A1" s="21" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -2391,10 +4566,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -2448,41 +4623,44 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A191"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="L196" sqref="L196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="23"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -2492,156 +4670,899 @@
       <c r="A9" s="22"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>50</v>
+      <c r="A10" s="24"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>61</v>
+      <c r="A24" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>62</v>
+      <c r="A25" s="29" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>63</v>
+      <c r="A26" s="29" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>64</v>
+      <c r="A27" s="29" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>65</v>
+      <c r="A28" s="36" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>66</v>
+      <c r="A29" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>67</v>
+      <c r="A30" s="29" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>68</v>
+      <c r="A31" s="29" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>69</v>
+      <c r="A32" s="29" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>70</v>
+      <c r="A33" s="29" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>71</v>
+      <c r="A34" s="29" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>72</v>
+      <c r="A35" s="31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
-        <v>73</v>
+      <c r="A37" s="29" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>74</v>
+      <c r="A38" s="36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
-        <v>75</v>
+      <c r="A40" s="29" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>76</v>
+      <c r="A41" s="29" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>79</v>
+      <c r="A42" s="29" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>77</v>
+      <c r="A43" s="29" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
-        <v>78</v>
+      <c r="A44" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="36" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="36" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="37"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="29" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2649,4 +5570,377 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J38" s="23"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="C39" s="23">
+        <v>0.33</v>
+      </c>
+      <c r="D39" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="E39" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="F39" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="G39" s="23">
+        <f>SUM(B39:F39)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="22">
+        <v>1</v>
+      </c>
+      <c r="J39" s="22"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="E40" s="23">
+        <v>0.12</v>
+      </c>
+      <c r="F40" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="G40" s="23">
+        <f>SUM(B40:F40)</f>
+        <v>1</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" s="23">
+        <f>C39</f>
+        <v>0.33</v>
+      </c>
+      <c r="J40" s="23"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="E41" s="23">
+        <v>0.16</v>
+      </c>
+      <c r="F41" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="G41" s="23">
+        <f>SUM(B41:F41)</f>
+        <v>1</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41" s="23">
+        <f>D39+I40*D40</f>
+        <v>0.3155</v>
+      </c>
+      <c r="J41" s="23"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="F42" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="G42" s="23">
+        <f>SUM(B42:F42)</f>
+        <v>1</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="23">
+        <f>E39+I40*E40+I41*E41</f>
+        <v>0.19008</v>
+      </c>
+      <c r="J42" s="23"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23">
+        <v>1</v>
+      </c>
+      <c r="G43" s="23">
+        <f>SUM(B43:F43)</f>
+        <v>1</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43" s="23">
+        <f>F39+I40*F40+I41*F41+I42*F42</f>
+        <v>5.2024000000000001E-2</v>
+      </c>
+      <c r="J43" s="23"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I44" s="23">
+        <f>1/I43</f>
+        <v>19.221897585729664</v>
+      </c>
+      <c r="J44" s="23"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>